--- a/output/StructureDefinition-mental-health-condition.xlsx
+++ b/output/StructureDefinition-mental-health-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-18T07:55:32+05:45</t>
+    <t>2025-05-20T08:23:51+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-mental-health-condition.xlsx
+++ b/output/StructureDefinition-mental-health-condition.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$60</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="427">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T08:23:51+05:45</t>
+    <t>2025-05-20T11:38:44+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -902,7 +902,13 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>http://id.who.int/icd/release/11/mms</t>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Identification of the condition or diagnosis.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -932,6 +938,42 @@
     <t>246090004</t>
   </si>
   <si>
+    <t>Condition.code.id</t>
+  </si>
+  <si>
+    <t>Condition.code.extension</t>
+  </si>
+  <si>
+    <t>Condition.code.coding</t>
+  </si>
+  <si>
+    <t>Condition.code.coding.id</t>
+  </si>
+  <si>
+    <t>Condition.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Condition.code.coding.system</t>
+  </si>
+  <si>
+    <t>http://id.who.int/icd/release/11/mms</t>
+  </si>
+  <si>
+    <t>Condition.code.coding.version</t>
+  </si>
+  <si>
+    <t>Condition.code.coding.code</t>
+  </si>
+  <si>
+    <t>Condition.code.coding.display</t>
+  </si>
+  <si>
+    <t>Condition.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Condition.code.text</t>
+  </si>
+  <si>
     <t>Condition.bodySite</t>
   </si>
   <si>
@@ -942,9 +984,6 @@
   </si>
   <si>
     <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -1648,7 +1687,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP49"/>
+  <dimension ref="A1:AP60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4895,11 +4934,13 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Y27" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="Z27" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -4932,30 +4973,30 @@
         <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4966,7 +5007,7 @@
         <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>81</v>
@@ -4975,20 +5016,18 @@
         <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>291</v>
+        <v>198</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -5013,13 +5052,13 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>294</v>
+        <v>81</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>295</v>
+        <v>81</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
@@ -5037,79 +5076,79 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>298</v>
+        <v>201</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>299</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>301</v>
+        <v>138</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>302</v>
+        <v>139</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>303</v>
+        <v>140</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5145,46 +5184,46 @@
         <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>300</v>
+        <v>207</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>306</v>
+        <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>307</v>
+        <v>81</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>308</v>
+        <v>201</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>309</v>
+        <v>81</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>81</v>
@@ -5192,10 +5231,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5206,7 +5245,7 @@
         <v>82</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
@@ -5218,18 +5257,20 @@
         <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>311</v>
+        <v>209</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>313</v>
+        <v>211</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5277,13 +5318,13 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>310</v>
+        <v>214</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
@@ -5292,19 +5333,19 @@
         <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>315</v>
+        <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>316</v>
+        <v>215</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>317</v>
+        <v>216</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>318</v>
+        <v>81</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>81</v>
@@ -5312,10 +5353,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5329,26 +5370,24 @@
         <v>93</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>320</v>
+        <v>197</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>321</v>
+        <v>198</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5397,7 +5436,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>319</v>
+        <v>200</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>82</v>
@@ -5409,22 +5448,22 @@
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>324</v>
+        <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>325</v>
+        <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>326</v>
+        <v>201</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>327</v>
+        <v>81</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>81</v>
@@ -5432,21 +5471,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>81</v>
@@ -5458,16 +5497,16 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>320</v>
+        <v>139</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>329</v>
+        <v>140</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>330</v>
+        <v>203</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>331</v>
+        <v>142</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5505,31 +5544,31 @@
         <v>81</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>328</v>
+        <v>207</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>332</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>81</v>
@@ -5541,10 +5580,10 @@
         <v>81</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>333</v>
+        <v>201</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>334</v>
+        <v>81</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>81</v>
@@ -5552,10 +5591,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5569,7 +5608,7 @@
         <v>93</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>81</v>
@@ -5578,16 +5617,20 @@
         <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>336</v>
+        <v>107</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>337</v>
+        <v>220</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
       </c>
@@ -5596,7 +5639,7 @@
         <v>81</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>81</v>
@@ -5635,7 +5678,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>335</v>
+        <v>225</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>82</v>
@@ -5656,13 +5699,13 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>339</v>
+        <v>226</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>340</v>
+        <v>227</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>341</v>
+        <v>81</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>81</v>
@@ -5670,10 +5713,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5696,15 +5739,17 @@
         <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>343</v>
+        <v>197</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>344</v>
+        <v>229</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -5753,7 +5798,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>82</v>
@@ -5774,13 +5819,13 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>81</v>
+        <v>233</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>346</v>
+        <v>234</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>347</v>
+        <v>81</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>81</v>
@@ -5788,10 +5833,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5814,16 +5859,18 @@
         <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>343</v>
+        <v>113</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>349</v>
+        <v>236</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>350</v>
+        <v>237</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
       </c>
@@ -5871,7 +5918,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>348</v>
+        <v>240</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>82</v>
@@ -5892,13 +5939,13 @@
         <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>351</v>
+        <v>241</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>353</v>
+        <v>81</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>81</v>
@@ -5906,10 +5953,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>354</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>354</v>
+        <v>301</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5920,7 +5967,7 @@
         <v>82</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>81</v>
@@ -5929,19 +5976,21 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>355</v>
+        <v>197</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>356</v>
+        <v>244</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>357</v>
+        <v>245</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
       </c>
@@ -5989,19 +6038,19 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>354</v>
+        <v>248</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>358</v>
+        <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>81</v>
@@ -6010,10 +6059,10 @@
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>81</v>
+        <v>249</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>359</v>
+        <v>250</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
@@ -6024,10 +6073,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>360</v>
+        <v>302</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>360</v>
+        <v>302</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6047,19 +6096,23 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>197</v>
+        <v>252</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>198</v>
+        <v>253</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6107,7 +6160,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>82</v>
@@ -6119,7 +6172,7 @@
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>81</v>
@@ -6128,10 +6181,10 @@
         <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>81</v>
+        <v>258</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
@@ -6142,21 +6195,21 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>361</v>
+        <v>303</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>361</v>
+        <v>303</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>81</v>
@@ -6165,21 +6218,23 @@
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>140</v>
+        <v>261</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6227,19 +6282,19 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>81</v>
@@ -6248,10 +6303,10 @@
         <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
@@ -6262,14 +6317,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>362</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>362</v>
+        <v>304</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6282,26 +6337,24 @@
         <v>81</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>364</v>
+        <v>305</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>365</v>
+        <v>306</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6325,13 +6378,13 @@
         <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>81</v>
+        <v>308</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>81</v>
+        <v>309</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>81</v>
@@ -6349,7 +6402,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>366</v>
+        <v>304</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>82</v>
@@ -6361,65 +6414,67 @@
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>81</v>
+        <v>310</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>136</v>
+        <v>311</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>81</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>160</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>368</v>
+        <v>316</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>369</v>
+        <v>317</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
       </c>
@@ -6443,13 +6498,13 @@
         <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>294</v>
+        <v>81</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>370</v>
+        <v>81</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>371</v>
+        <v>81</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>81</v>
@@ -6467,34 +6522,34 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>372</v>
+        <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>373</v>
+        <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>171</v>
+        <v>320</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>81</v>
+        <v>322</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>81</v>
@@ -6502,10 +6557,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>374</v>
+        <v>323</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>374</v>
+        <v>323</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6516,7 +6571,7 @@
         <v>82</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>81</v>
@@ -6525,18 +6580,20 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>376</v>
+        <v>325</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6585,34 +6642,34 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>374</v>
+        <v>323</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>372</v>
+        <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>81</v>
+        <v>329</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>81</v>
+        <v>331</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>81</v>
@@ -6620,10 +6677,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6637,24 +6694,26 @@
         <v>93</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>160</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>380</v>
+        <v>334</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -6679,13 +6738,13 @@
         <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>294</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>382</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>383</v>
+        <v>81</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
@@ -6703,7 +6762,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>82</v>
@@ -6718,19 +6777,19 @@
         <v>105</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>81</v>
+        <v>337</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>81</v>
+        <v>338</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>81</v>
+        <v>340</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>81</v>
@@ -6738,10 +6797,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>385</v>
+        <v>341</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>385</v>
+        <v>341</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6752,7 +6811,7 @@
         <v>82</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>81</v>
@@ -6764,16 +6823,16 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>387</v>
+        <v>343</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>388</v>
+        <v>344</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6823,19 +6882,19 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>385</v>
+        <v>341</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>81</v>
+        <v>345</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>389</v>
+        <v>105</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>81</v>
@@ -6847,10 +6906,10 @@
         <v>81</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>81</v>
+        <v>347</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>81</v>
@@ -6858,10 +6917,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>391</v>
+        <v>348</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>391</v>
+        <v>348</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6875,22 +6934,22 @@
         <v>93</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>197</v>
+        <v>349</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>198</v>
+        <v>350</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>199</v>
+        <v>351</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6941,7 +7000,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>200</v>
+        <v>348</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>82</v>
@@ -6953,7 +7012,7 @@
         <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>81</v>
@@ -6962,13 +7021,13 @@
         <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>81</v>
+        <v>352</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>201</v>
+        <v>353</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>81</v>
+        <v>354</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>81</v>
@@ -6976,21 +7035,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>392</v>
+        <v>355</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>392</v>
+        <v>355</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
@@ -6999,20 +7058,18 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>139</v>
+        <v>356</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>140</v>
+        <v>357</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7061,19 +7118,19 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>207</v>
+        <v>355</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>81</v>
@@ -7085,10 +7142,10 @@
         <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>201</v>
+        <v>359</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>81</v>
+        <v>360</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>81</v>
@@ -7096,46 +7153,42 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>139</v>
+        <v>356</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7183,34 +7236,34 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AO46" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>81</v>
@@ -7218,10 +7271,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7241,16 +7294,16 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>160</v>
+        <v>368</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>396</v>
+        <v>370</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7277,13 +7330,13 @@
         <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>294</v>
+        <v>81</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>397</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>398</v>
+        <v>81</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>81</v>
@@ -7301,7 +7354,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>82</v>
@@ -7310,25 +7363,25 @@
         <v>83</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>399</v>
+        <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>105</v>
+        <v>371</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>400</v>
+        <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>402</v>
+        <v>81</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>81</v>
@@ -7336,10 +7389,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7350,7 +7403,7 @@
         <v>82</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>81</v>
@@ -7359,16 +7412,16 @@
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>404</v>
+        <v>197</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>405</v>
+        <v>198</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>406</v>
+        <v>199</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7419,19 +7472,19 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>403</v>
+        <v>200</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>399</v>
+        <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>81</v>
@@ -7443,10 +7496,10 @@
         <v>81</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>378</v>
+        <v>201</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>402</v>
+        <v>81</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>81</v>
@@ -7454,14 +7507,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7480,15 +7533,17 @@
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>408</v>
+        <v>139</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>409</v>
+        <v>140</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>81</v>
@@ -7537,7 +7592,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>407</v>
+        <v>207</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>82</v>
@@ -7549,29 +7604,1339 @@
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP49" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="P50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP50" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AK51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP51" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP52" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP55" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP56" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP57" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="Z58" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AL49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AA58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI58" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AN49" t="s" s="2">
+      <c r="AJ58" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AO49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP49" t="s" s="2">
+      <c r="AL58" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP60" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP49">
+  <autoFilter ref="A1:AP60">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7581,7 +8946,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI48">
+  <conditionalFormatting sqref="A2:AI59">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
